--- a/src/data/Illicit - illicite - export_250416.xlsx
+++ b/src/data/Illicit - illicite - export_250416.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacksonzhao/Desktop/JWP/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacksonzhao/Desktop/chatbot_automation/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82C3FC5-C65A-4246-81C7-B5FA185E121B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918B669-3F09-4645-B4DE-16497D1AD8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Illicit - Pivot Table" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId4"/>
+    <pivotCache cacheId="30" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -9486,7 +9486,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D717A9F4-72FF-E54C-985D-E4DAAD11E3D9}" name="PivotTable11" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D717A9F4-72FF-E54C-985D-E4DAAD11E3D9}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="97">
     <pivotField axis="axisRow" showAll="0">
@@ -9995,8 +9995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EBEA4B-66E1-5744-AFDD-AD98DC6C9443}">
   <dimension ref="A3:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A4:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10133,8 +10133,7 @@
         <v>3500000</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>-1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -10196,8 +10195,7 @@
         <v>4000000</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>-499668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -10275,7 +10273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5601C049-0819-344F-BB03-FB949D52E0DA}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
